--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801725.667897395</v>
+        <v>2799838.086380993</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>575053.0392615289</v>
+        <v>772367.044475416</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>163.8950372953905</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>147.5811180914629</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>96.74944290141764</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>20.40125615200015</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>83.33705942123233</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>69.90866715955528</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>81.73692581035962</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>155.6114311958879</v>
+        <v>3.270884136072437</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481181</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229337</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>57.73629588331714</v>
+        <v>208.3423105940803</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385009</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>80.45474577052062</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>253.1488561805823</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>87.90277740092542</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.7955476484028</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>37.34995075181402</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>18.53783461872631</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>221.230657477476</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>218.5843930538366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>57.89259855395048</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6968273446479</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>72.68359456069963</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.71949968877158</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700712</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965571</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801253</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943746</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348209</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897948</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571534</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523614</v>
+        <v>21.20383876096182</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550466</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298326</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700207</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952714</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604805</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463085</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463139</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.715370239897</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
-        <v>1838.715370239897</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1480.449671633147</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1094.661419034903</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>683.6755142452951</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,16 +4325,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.715370239897</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470.722514162039</v>
+        <v>224.666950679165</v>
       </c>
       <c r="C4" t="n">
-        <v>301.7863312341321</v>
+        <v>224.666950679165</v>
       </c>
       <c r="D4" t="n">
-        <v>151.6696918217964</v>
+        <v>74.55031126682925</v>
       </c>
       <c r="E4" t="n">
-        <v>151.6696918217964</v>
+        <v>74.55031126682925</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>74.55031126682925</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>74.55031126682925</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>224.666950679165</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>224.666950679165</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>224.666950679165</v>
       </c>
       <c r="X4" t="n">
-        <v>470.722514162039</v>
+        <v>224.666950679165</v>
       </c>
       <c r="Y4" t="n">
-        <v>470.722514162039</v>
+        <v>224.666950679165</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.124202655613</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.161685715201</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D5" t="n">
-        <v>934.895987108451</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E5" t="n">
-        <v>549.1077345102067</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F5" t="n">
-        <v>138.1218297205991</v>
+        <v>138.4812011944557</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>124.5577971330465</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>124.5577971330465</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.124202655613</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545818</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>645.5664328828389</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>645.5664328828389</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>645.5664328828389</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>645.5664328828389</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>417.5768819848215</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.5768819848215</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>976.0491016702019</v>
+        <v>1271.9848706798</v>
       </c>
       <c r="C8" t="n">
-        <v>976.0491016702019</v>
+        <v>1271.9848706798</v>
       </c>
       <c r="D8" t="n">
-        <v>617.7834030634515</v>
+        <v>1271.9848706798</v>
       </c>
       <c r="E8" t="n">
-        <v>231.9951504652072</v>
+        <v>886.1966180815552</v>
       </c>
       <c r="F8" t="n">
-        <v>225.0496497160038</v>
+        <v>475.2107132919477</v>
       </c>
       <c r="G8" t="n">
-        <v>211.1262456545947</v>
+        <v>57.24690519013456</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186805</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2388.358616186805</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2035.589960916691</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>1662.124202655611</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.0491016702019</v>
+        <v>1271.9848706798</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>517.6822058285748</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="W10" t="n">
-        <v>385.7080860629399</v>
+        <v>517.6822058285748</v>
       </c>
       <c r="X10" t="n">
-        <v>385.7080860629399</v>
+        <v>517.6822058285748</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.7080860629399</v>
+        <v>517.6822058285748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,19 +5054,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>572.0772607672147</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M12" t="n">
-        <v>2056.693778606511</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>475.7924673804756</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5230,19 +5230,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.424940013486</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V13" t="n">
-        <v>764.7404518075996</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="W13" t="n">
-        <v>475.323281770639</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>475.7924673804756</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5297,10 +5297,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,10 +5352,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
         <v>508.1073603047985</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>484.0375086983737</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>484.0375086983737</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>333.9208692860379</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>186.0077757036449</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1306.193495155475</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1306.193495155475</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.064856369034</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>665.6859735286134</v>
       </c>
     </row>
     <row r="17">
@@ -5510,49 +5510,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,19 +5589,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1037.48362228133</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>782.7991340754432</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W19" t="n">
-        <v>493.3819640384826</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X19" t="n">
-        <v>265.3924131404653</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404653</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,10 +5738,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>334.288126757867</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,49 +5911,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500523</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,16 +5975,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6005,31 +6005,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1240.518888196738</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V25" t="n">
-        <v>985.8343999908507</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W25" t="n">
-        <v>696.41722995389</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="X25" t="n">
-        <v>468.4276790558727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527474</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.7175987609741</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="C28" t="n">
-        <v>506.7814158330672</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207316</v>
+        <v>748.6758788365025</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383383</v>
+        <v>600.7627852541094</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383383</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347409</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141522</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141522</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="X28" t="n">
-        <v>1020.446367141522</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="Y28" t="n">
-        <v>799.6537879979921</v>
+        <v>898.7925182488383</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527474</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215278</v>
+        <v>638.460363022716</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749913</v>
+        <v>525.2850453761799</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440259</v>
+        <v>430.929271245215</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430031</v>
+        <v>338.7770429441928</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264631</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276544</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="H31" t="n">
-        <v>152.990817556968</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864667</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933493</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667496</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962034</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286022</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.39040735369</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021644</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056071</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899267</v>
+        <v>1914.708044105609</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096189</v>
+        <v>1770.548899302532</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167066</v>
+        <v>1602.524349373408</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661994</v>
+        <v>1369.156575868337</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737478</v>
+        <v>1170.232952943821</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.336733737478</v>
+        <v>936.5766481882315</v>
       </c>
       <c r="X31" t="n">
-        <v>964.1080481208306</v>
+        <v>764.3479625715848</v>
       </c>
       <c r="Y31" t="n">
-        <v>799.0763342586708</v>
+        <v>764.3479625715848</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,16 +6935,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,7 +6953,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7017,13 +7017,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N36" t="n">
         <v>1138.699705022018</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028586</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7254,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504511</v>
@@ -7330,16 +7330,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7646,22 +7646,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7725,16 +7725,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013796</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,7 +8781,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>86.79207532810722</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>33.08849621799502</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>57.51827062200583</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>7.125262335200489</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>248.8874016467633</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>207.1718207703108</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>30.90698584635197</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.125262335200517</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.3447538446269</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338577</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.13515283728935</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>72.73745346223161</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.90922386460907</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>33.55725701427383</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080344</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.902744876744691e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813644.2746905404</v>
+        <v>813644.2746905405</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.2060179039</v>
+        <v>610233.2060179047</v>
       </c>
       <c r="L2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="M2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="M2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="N2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398212</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982123</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284524</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086722</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028453</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.1391806192</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759167</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758474</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758515</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.793690575885</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758825</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758888</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477227</v>
+        <v>18952.41620477249</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189637</v>
@@ -26454,10 +26454,10 @@
         <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603602</v>
+        <v>-196104.7690603601</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.110154184</v>
+        <v>393863.1101541838</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541842</v>
+        <v>393863.1101541845</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962617</v>
+        <v>-31489.02563559853</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672705</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="G6" t="n">
-        <v>493768.4699672705</v>
+        <v>493671.0108412979</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.4699672705</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="I6" t="n">
-        <v>493768.4699672705</v>
+        <v>493671.0108412982</v>
       </c>
       <c r="J6" t="n">
-        <v>317345.2507746775</v>
+        <v>317247.7916487052</v>
       </c>
       <c r="K6" t="n">
-        <v>450489.9759800636</v>
+        <v>450471.4822421293</v>
       </c>
       <c r="L6" t="n">
-        <v>484516.7338454236</v>
+        <v>484516.7338454237</v>
       </c>
       <c r="M6" t="n">
         <v>360058.6254124535</v>
       </c>
       <c r="N6" t="n">
-        <v>494859.6406462907</v>
+        <v>494859.6406462903</v>
       </c>
       <c r="O6" t="n">
-        <v>494859.6406462908</v>
+        <v>494859.6406462905</v>
       </c>
       <c r="P6" t="n">
-        <v>450697.035343445</v>
+        <v>450697.0353434448</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,43 +26735,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855656</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108402</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855663</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855656</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>218.8388043680901</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>266.2030519293321</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.481659405224491e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>48.67160512151361</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>135.769632689795</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>330.4471105995627</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>82.02264908530597</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>143.2981796477247</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>168.3113415684692</v>
+        <v>320.6518886282847</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853705</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491437</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>228.7867024532738</v>
+        <v>78.18068774251071</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28621,13 +28621,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855664</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633787</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473546</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141101</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188906</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078603</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644435</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302231</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175834</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678002</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>185.0317243401304</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,22 +32309,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,16 +32725,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4309478731435</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,16 +33199,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -33746,7 +33746,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>288.9613021006076</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34457,7 +34457,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770682</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.31973343389</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535805</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713946</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>311.65552237835</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>728.4316101333637</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>286.9827555116977</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>286.9827555116977</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412218</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584672</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084852</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075292</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341603</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491595</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403574</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043141</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37084,13 +37084,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>636.9619643608278</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,7 +38105,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
